--- a/data/2022_OCA_macrofauna_measurement.xlsx
+++ b/data/2022_OCA_macrofauna_measurement.xlsx
@@ -844,7 +844,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Gastrapoda</t>
+          <t>Gastropoda</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Gastrapoda</t>
+          <t>Gastropoda</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Gastrapoda</t>
+          <t>Gastropoda</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -11996,7 +11996,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>Gastrapoda</t>
+          <t>Gastropoda</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -12037,7 +12037,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>Gastrapoda</t>
+          <t>Gastropoda</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -20508,7 +20508,7 @@
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>Sipucula</t>
+          <t>Sipuncula</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -66327,7 +66327,7 @@
       </c>
       <c r="G1599" t="inlineStr">
         <is>
-          <t>Oligochaetea</t>
+          <t>Oligochaeta</t>
         </is>
       </c>
       <c r="J1599" t="inlineStr">

--- a/data/2022_OCA_macrofauna_measurement.xlsx
+++ b/data/2022_OCA_macrofauna_measurement.xlsx
@@ -101729,7 +101729,7 @@
       </c>
       <c r="C2459" t="inlineStr">
         <is>
-          <t>龜山島</t>
+          <t>龜山島(II)</t>
         </is>
       </c>
       <c r="E2459">
@@ -101770,7 +101770,7 @@
       </c>
       <c r="C2460" t="inlineStr">
         <is>
-          <t>龜山島</t>
+          <t>龜山島(II)</t>
         </is>
       </c>
       <c r="E2460">
@@ -101811,7 +101811,7 @@
       </c>
       <c r="C2461" t="inlineStr">
         <is>
-          <t>龜山島</t>
+          <t>龜山島(II)</t>
         </is>
       </c>
       <c r="E2461">
@@ -101852,7 +101852,7 @@
       </c>
       <c r="C2462" t="inlineStr">
         <is>
-          <t>龜山島</t>
+          <t>龜山島(II)</t>
         </is>
       </c>
       <c r="E2462">
